--- a/biology/Médecine/Caroline_Winslow/Caroline_Winslow.xlsx
+++ b/biology/Médecine/Caroline_Winslow/Caroline_Winslow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Winslow (19 novembre 1822 à Appledore au Royaume-Uni, 7 décembre 1896 à Washington), née Caroline Brown, est une médecin des États-Unis, et la cinquième américaine à obtenir un diplôme universitaire de médecine.
 Son professeur d'anatomie fut Rachel Brooks Gleason.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline Brown naît en Angleterre en 1822, avant de se rendre avec ses parents à Utica, dans l'Etat de New York aux Etats-Unis. Elle étudie alors la médecine à la Cincinnati Eclectic Medical College, puis l'homéopathie au Western College of Homeopathy à Cleveland. Elle exerce ensuite en tant qu'homéopathe à Utica[1].
-Après la mort de ses parents, elle emménage à Washington où elle continue sa pratique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caroline Brown naît en Angleterre en 1822, avant de se rendre avec ses parents à Utica, dans l'Etat de New York aux Etats-Unis. Elle étudie alors la médecine à la Cincinnati Eclectic Medical College, puis l'homéopathie au Western College of Homeopathy à Cleveland. Elle exerce ensuite en tant qu'homéopathe à Utica.
+Après la mort de ses parents, elle emménage à Washington où elle continue sa pratique.
 </t>
         </is>
       </c>
